--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -813,8 +813,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="TimeSlice" sheetId="5" r:id="rId5"/>
     <sheet name="Commodity" sheetId="7" r:id="rId6"/>
     <sheet name="Process" sheetId="12" r:id="rId7"/>
+    <sheet name="Generator" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="226">
   <si>
     <t>BaseYear</t>
   </si>
@@ -307,9 +308,6 @@
     <t>RepHoursInDay</t>
   </si>
   <si>
-    <t>SystemTSIndex</t>
-  </si>
-  <si>
     <t>RepDayInYear</t>
   </si>
   <si>
@@ -394,9 +392,6 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>OperationMode</t>
   </si>
   <si>
@@ -671,6 +666,39 @@
   </si>
   <si>
     <t>VI</t>
+  </si>
+  <si>
+    <t>GeneratorID</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>EU18</t>
+  </si>
+  <si>
+    <t>ZoneA1_Agr</t>
+  </si>
+  <si>
+    <t>ZoneA2_Agr</t>
+  </si>
+  <si>
+    <t>ZoneB1_Agr</t>
+  </si>
+  <si>
+    <t>ZoneB2_Agr</t>
+  </si>
+  <si>
+    <t>ZoneC1_Agr</t>
+  </si>
+  <si>
+    <t>TSIndex</t>
+  </si>
+  <si>
+    <t>ProcessType</t>
   </si>
 </sst>
 </file>
@@ -755,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,10 +839,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -836,7 +867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1185,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,16 +1233,16 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1222,16 +1253,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1240,16 +1271,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1258,16 +1289,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -1276,16 +1307,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1294,16 +1325,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1333,10 +1364,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,10 +1386,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1403,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="6">
         <v>2010</v>
@@ -1428,7 +1459,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F22"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1443,8 +1474,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>95</v>
+      <c r="A1" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>21</v>
@@ -1459,13 +1490,13 @@
         <v>85</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>94</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6855,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6870,27 +6901,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -6899,15 +6930,15 @@
         <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -6916,15 +6947,15 @@
         <v>94.6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -6933,15 +6964,15 @@
         <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -6950,15 +6981,15 @@
         <v>56.1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6967,15 +6998,15 @@
         <v>73.3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -6984,15 +7015,15 @@
         <v>1E-4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -7001,15 +7032,15 @@
         <v>1E-4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -7018,15 +7049,15 @@
         <v>1E-4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -7035,15 +7066,15 @@
         <v>1E-4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -7052,15 +7083,15 @@
         <v>1E-4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -7069,15 +7100,15 @@
         <v>1E-4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -7086,15 +7117,15 @@
         <v>1E-4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -7103,7 +7134,7 @@
         <v>1E-4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7115,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7130,23 +7161,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>124</v>
+      <c r="A1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>191</v>
+      <c r="D1" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,13 +7188,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>45</v>
@@ -7177,13 +7208,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>45</v>
@@ -7197,13 +7228,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>45</v>
@@ -7217,13 +7248,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>45</v>
@@ -7231,19 +7262,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>45</v>
@@ -7251,19 +7282,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>45</v>
@@ -7271,19 +7302,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>45</v>
@@ -7297,13 +7328,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>45</v>
@@ -7317,13 +7348,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>45</v>
@@ -7337,13 +7368,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>45</v>
@@ -7357,13 +7388,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>45</v>
@@ -7371,19 +7402,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>45</v>
@@ -7397,13 +7428,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>45</v>
@@ -7417,13 +7448,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>45</v>
@@ -7431,19 +7462,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>45</v>
@@ -7451,19 +7482,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>45</v>
@@ -7477,13 +7508,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>45</v>
@@ -7497,16 +7528,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7517,13 +7548,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>46</v>
@@ -7531,19 +7562,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>44</v>
@@ -7551,19 +7582,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>46</v>
@@ -7571,19 +7602,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>46</v>
@@ -7591,19 +7622,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>46</v>
@@ -7611,19 +7642,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>46</v>
@@ -7631,19 +7662,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>46</v>
@@ -7651,19 +7682,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>46</v>
@@ -7671,19 +7702,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>46</v>
@@ -7691,19 +7722,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>46</v>
@@ -7711,19 +7742,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>46</v>
@@ -7731,19 +7762,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>46</v>
@@ -7751,19 +7782,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>46</v>
@@ -7771,19 +7802,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>46</v>
@@ -7791,19 +7822,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>46</v>
@@ -7817,13 +7848,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>46</v>
@@ -7831,19 +7862,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>46</v>
@@ -7851,39 +7882,39 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>46</v>
@@ -7891,19 +7922,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>46</v>
@@ -7911,19 +7942,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>46</v>
@@ -7931,19 +7962,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>45</v>
@@ -7951,19 +7982,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>45</v>
@@ -7971,19 +8002,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>45</v>
@@ -7991,19 +8022,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>45</v>
@@ -8011,19 +8042,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>45</v>
@@ -8031,19 +8062,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>45</v>
@@ -8051,19 +8082,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>45</v>
@@ -8071,19 +8102,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>45</v>
@@ -8091,19 +8122,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>45</v>
@@ -8111,19 +8142,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>45</v>
@@ -8131,19 +8162,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>45</v>
@@ -8154,20 +8185,105 @@
         <v>37</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>45</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6886,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7147,7 +7147,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8210,7 +8210,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -1348,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6886,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>112</v>
+        <v>0.112</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>120</v>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>94.6</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>120</v>
@@ -6961,7 +6961,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>120</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>56.1</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>120</v>
@@ -6995,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>73.3</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>120</v>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="225">
   <si>
     <t>BaseYear</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>Biomass IGCC CCS</t>
-  </si>
-  <si>
-    <t>biomass</t>
   </si>
   <si>
     <t>NA</t>
@@ -1233,16 +1230,16 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1253,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1271,16 +1268,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1289,16 +1286,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -1307,16 +1304,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1325,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1364,10 +1361,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="6">
         <v>2010</v>
@@ -1475,7 +1472,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>21</v>
@@ -6887,7 +6884,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6903,7 +6900,7 @@
       <c r="A1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -7147,7 +7144,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7162,16 +7159,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>122</v>
@@ -7188,7 +7185,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>23</v>
@@ -7208,7 +7205,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
@@ -7228,7 +7225,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -7248,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -7262,13 +7259,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -7282,13 +7279,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>50</v>
@@ -7302,13 +7299,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>51</v>
@@ -7328,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
@@ -7348,7 +7345,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
@@ -7368,7 +7365,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -7388,7 +7385,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>26</v>
@@ -7402,13 +7399,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>28</v>
@@ -7428,7 +7425,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>34</v>
@@ -7448,7 +7445,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>36</v>
@@ -7462,13 +7459,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>52</v>
@@ -7482,13 +7479,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>53</v>
@@ -7508,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
@@ -7528,7 +7525,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>42</v>
@@ -7548,7 +7545,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>55</v>
@@ -7568,7 +7565,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>126</v>
@@ -7582,16 +7579,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>107</v>
@@ -7602,16 +7599,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>107</v>
@@ -7622,16 +7619,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>107</v>
@@ -7642,16 +7639,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>107</v>
@@ -7662,16 +7659,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>107</v>
@@ -7682,16 +7679,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>107</v>
@@ -7702,16 +7699,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>107</v>
@@ -7722,16 +7719,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>107</v>
@@ -7742,16 +7739,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>107</v>
@@ -7762,16 +7759,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>107</v>
@@ -7782,16 +7779,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>107</v>
@@ -7802,16 +7799,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>107</v>
@@ -7828,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>43</v>
@@ -7848,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>57</v>
@@ -7868,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>58</v>
@@ -7882,16 +7879,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>106</v>
@@ -7908,7 +7905,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>131</v>
@@ -7928,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>135</v>
@@ -7948,7 +7945,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>132</v>
@@ -7968,13 +7965,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>45</v>
@@ -7988,13 +7985,13 @@
         <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>45</v>
@@ -8008,13 +8005,13 @@
         <v>10</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>45</v>
@@ -8028,13 +8025,13 @@
         <v>10</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>45</v>
@@ -8048,13 +8045,13 @@
         <v>136</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>45</v>
@@ -8062,16 +8059,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>100</v>
@@ -8082,16 +8079,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>100</v>
@@ -8102,16 +8099,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>102</v>
@@ -8122,16 +8119,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>102</v>
@@ -8142,16 +8139,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>100</v>
@@ -8162,16 +8159,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>102</v>
@@ -8188,7 +8185,7 @@
         <v>124</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>38</v>
@@ -8223,64 +8220,64 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>219</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6883,7 +6883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7143,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -7143,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -7143,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="222">
   <si>
     <t>BaseYear</t>
   </si>
@@ -626,18 +626,12 @@
     <t>Region1</t>
   </si>
   <si>
-    <t>Region2</t>
-  </si>
-  <si>
     <t>CountryA</t>
   </si>
   <si>
     <t>CountryB</t>
   </si>
   <si>
-    <t>CountryC</t>
-  </si>
-  <si>
     <t>ZoneA1</t>
   </si>
   <si>
@@ -648,9 +642,6 @@
   </si>
   <si>
     <t>ZoneB2</t>
-  </si>
-  <si>
-    <t>ZoneC1</t>
   </si>
   <si>
     <t>Market1</t>
@@ -841,8 +832,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -864,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1211,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1253,13 +1244,13 @@
         <v>200</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1271,13 +1262,13 @@
         <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1289,13 +1280,13 @@
         <v>200</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -1307,33 +1298,15 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,7 +1337,7 @@
         <v>198</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>21</v>
@@ -7143,7 +7116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -7162,7 +7135,7 @@
         <v>187</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>27</v>
@@ -8223,61 +8196,61 @@
         <v>199</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>220</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1204,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -7116,8 +7116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1370,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>189</v>
       </c>
@@ -1405,18 +1405,6 @@
       </c>
       <c r="H1" s="6">
         <v>2040</v>
-      </c>
-      <c r="I1" s="6">
-        <v>2045</v>
-      </c>
-      <c r="J1" s="6">
-        <v>2050</v>
-      </c>
-      <c r="K1" s="6">
-        <v>2055</v>
-      </c>
-      <c r="L1" s="6">
-        <v>2060</v>
       </c>
     </row>
   </sheetData>
@@ -7116,7 +7104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -1370,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>189</v>
       </c>
@@ -1390,21 +1390,6 @@
       </c>
       <c r="C1" s="6">
         <v>2015</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="6">
-        <v>2025</v>
-      </c>
-      <c r="F1" s="6">
-        <v>2030</v>
-      </c>
-      <c r="G1" s="6">
-        <v>2035</v>
-      </c>
-      <c r="H1" s="6">
-        <v>2040</v>
       </c>
     </row>
   </sheetData>

--- a/Data/InstanceConfig.xlsx
+++ b/Data/InstanceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainInfo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="225">
   <si>
     <t>BaseYear</t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>ProcessType</t>
+  </si>
+  <si>
+    <t>Region2</t>
+  </si>
+  <si>
+    <t>CountryC</t>
+  </si>
+  <si>
+    <t>ZoneC1</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1153,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>20</v>
@@ -1202,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1316,24 @@
         <v>207</v>
       </c>
       <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1408,7 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>189</v>
       </c>
@@ -1390,6 +1417,9 @@
       </c>
       <c r="C1" s="6">
         <v>2015</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
